--- a/data/trans_camb/P54_A_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_2_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,3</t>
+          <t>53,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>58,75</t>
+          <t>58,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>59,42</t>
+          <t>58,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>65,39</t>
+          <t>65,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>56,97</t>
+          <t>56,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,24</t>
+          <t>62,08</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,43; 59,22</t>
+          <t>47,81; 58,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,97; 63,13</t>
+          <t>52,93; 63,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,77; 63,35</t>
+          <t>54,28; 62,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61,31; 69,1</t>
+          <t>61,35; 69,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,03; 60,41</t>
+          <t>52,87; 60,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,99; 65,1</t>
+          <t>58,81; 65,33</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>368,03%</t>
+          <t>365,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>398,16%</t>
+          <t>395,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>361,3%</t>
+          <t>355,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>397,62%</t>
+          <t>398,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>364,75%</t>
+          <t>360,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>398,47%</t>
+          <t>397,44%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>265,37; 494,5</t>
+          <t>265,42; 482,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>284,48; 513,41</t>
+          <t>289,69; 514,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>288,93; 440,76</t>
+          <t>287,73; 459,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>318,26; 492,0</t>
+          <t>323,83; 500,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>299,53; 431,62</t>
+          <t>299,1; 438,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>333,43; 468,2</t>
+          <t>324,55; 470,49</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>58,64</t>
+          <t>57,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66,45</t>
+          <t>66,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>61,79</t>
+          <t>61,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>65,64</t>
+          <t>65,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>60,27</t>
+          <t>59,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>66,08</t>
+          <t>65,97</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,64; 63,51</t>
+          <t>52,27; 62,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,56; 71,25</t>
+          <t>60,88; 71,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,06; 66,42</t>
+          <t>56,87; 66,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,92; 69,94</t>
+          <t>60,59; 70,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,34; 63,62</t>
+          <t>55,89; 63,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,59; 69,25</t>
+          <t>62,39; 69,27</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>400,26%</t>
+          <t>394,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>453,54%</t>
+          <t>452,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>284,64%</t>
+          <t>284,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>302,33%</t>
+          <t>301,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>332,22%</t>
+          <t>329,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>364,25%</t>
+          <t>363,72%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>297,13; 530,16</t>
+          <t>292,74; 530,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>341,41; 600,67</t>
+          <t>331,3; 591,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>218,27; 362,34</t>
+          <t>221,68; 364,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>241,55; 378,77</t>
+          <t>238,33; 387,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>276,47; 395,22</t>
+          <t>272,58; 394,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>300,83; 430,1</t>
+          <t>304,81; 440,85</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>56,49</t>
+          <t>56,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>64,33</t>
+          <t>64,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63,76</t>
+          <t>63,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>72,8</t>
+          <t>73,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,03</t>
+          <t>59,51</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,5</t>
+          <t>68,87</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,89; 67,77</t>
+          <t>39,74; 67,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,49; 73,63</t>
+          <t>50,08; 73,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,16; 72,05</t>
+          <t>53,22; 71,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,73; 79,52</t>
+          <t>64,33; 80,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,22; 66,56</t>
+          <t>50,34; 66,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,12; 74,37</t>
+          <t>60,82; 74,89</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>313,26%</t>
+          <t>310,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>356,74%</t>
+          <t>358,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>338,42%</t>
+          <t>335,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>386,41%</t>
+          <t>388,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>325,89%</t>
+          <t>322,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>371,84%</t>
+          <t>373,75%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>103,58; 584,32</t>
+          <t>121,18; 564,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>158,93; 648,81</t>
+          <t>141,43; 603,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>222,1; 502,42</t>
+          <t>213,86; 521,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>261,79; 575,37</t>
+          <t>260,33; 598,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>200,49; 459,05</t>
+          <t>199,83; 469,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>225,65; 531,35</t>
+          <t>234,77; 543,47</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>56,31</t>
+          <t>55,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>62,5</t>
+          <t>62,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>60,84</t>
+          <t>60,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>66,3</t>
+          <t>66,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>58,64</t>
+          <t>58,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>64,47</t>
+          <t>64,39</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,3; 60,21</t>
+          <t>51,64; 59,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>58,72; 65,66</t>
+          <t>58,94; 65,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>57,38; 63,78</t>
+          <t>57,03; 63,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63,5; 68,86</t>
+          <t>63,55; 68,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,03; 61,17</t>
+          <t>55,77; 60,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,43; 66,69</t>
+          <t>62,06; 66,54</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>372,61%</t>
+          <t>368,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>413,58%</t>
+          <t>412,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>324,45%</t>
+          <t>321,45%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>353,59%</t>
+          <t>353,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>346,22%</t>
+          <t>342,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>380,66%</t>
+          <t>380,18%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>304,85; 466,4</t>
+          <t>296,72; 450,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>339,48; 494,76</t>
+          <t>336,37; 498,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>274,82; 375,55</t>
+          <t>275,63; 376,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>305,96; 411,96</t>
+          <t>308,15; 412,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>308,04; 395,98</t>
+          <t>300,91; 389,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>338,15; 431,11</t>
+          <t>333,48; 430,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_2_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>53,95</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>58,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>58,54</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>65,45</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>56,36</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>62,08</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>53.90356454875842</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>58.56325985766474</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>59.30101312183859</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>65.54067456716488</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>56.72086840383918</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>62.23935900568998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>47,81; 58,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>52,93; 63,23</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>54,28; 62,97</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>61,35; 69,31</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>52,87; 60,07</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>58,81; 65,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>47.43314248582817</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>53.26097121495755</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>54.61147972115062</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>61.37402240012742</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>52.82712322889078</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>58.85638340172675</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>365,66%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>395,27%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>355,99%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>398,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>360,85%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>397,44%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>58.73113677057766</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>63.4345203520929</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>63.80000293368779</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>69.38099078369075</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>60.02391257167483</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>65.41725619671786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>265,42; 482,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>289,69; 514,33</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>287,73; 459,25</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>323,83; 500,57</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>299,1; 438,3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>324,55; 470,49</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>3.653573935564947</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>3.969407247718076</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>3.606108021531554</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>3.985543245402056</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.631532074716636</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>3.984851341304012</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>57,78</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>66,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>61,65</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>65,52</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>59,78</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>65,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>2.602984941338904</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>2.915831603460028</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>2.926826343106439</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>3.243461315373978</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>2.968626851146001</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>3.257760594690162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>52,27; 62,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>60,88; 71,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>56,87; 66,7</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>60,59; 70,25</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>55,89; 63,37</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>62,39; 69,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>4.816408636236444</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.176188184389083</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>4.581453026283661</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>5.00455117846762</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.331923649906527</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.743513725131609</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>394,37%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>452,87%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>284,04%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>301,87%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>329,56%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>363,72%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>57.70801154109756</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>66.52149573423982</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>62.29746829984871</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>65.61971882581028</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>60.05718733119468</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>66.10721221254803</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>292,74; 530,67</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>331,3; 591,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>221,68; 364,09</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>238,33; 387,25</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>272,58; 394,08</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>304,81; 440,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>52.01797136874209</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>61.13826385249885</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>57.06114381228083</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>60.6668364788632</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>56.14023859625017</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>62.42150130943111</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>56,02</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>64,7</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>63,2</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>73,18</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>59,51</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>68,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>62.99093464746652</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>71.09442943391954</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>66.81537425960008</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>70.41119199690485</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>63.74123106635879</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>69.48900695431107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>39,74; 67,11</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>50,08; 73,18</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>53,22; 71,31</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>64,33; 80,15</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>50,34; 66,33</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>60,82; 74,89</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>3.938590910652765</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>4.540114127400076</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>2.87025665759571</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>3.023324060663279</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.310984409443086</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.644525471704904</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>310,48%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>358,56%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>335,51%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>388,46%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>322,95%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>373,75%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>2.915795994137863</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>3.355934566950149</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>2.244166654090017</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>2.386527908766764</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>2.738157974646522</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>3.057049158824031</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>121,18; 564,79</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>141,43; 603,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>213,86; 521,27</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>260,33; 598,9</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>199,83; 469,52</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>234,77; 543,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>5.310911601577695</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>5.944646571831398</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.687623000455082</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>3.87676898936014</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4.017441832312196</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.40945595514405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,317 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>55,74</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>62,3</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>60,26</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>66,32</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>58,08</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>64,39</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>58.60422099685149</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>63.53816640978265</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>63.37666609989598</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>72.95123186721104</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>60.93260752859393</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>68.16633756439407</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>51,64; 59,56</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>58,94; 65,55</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>57,03; 63,18</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>63,55; 68,97</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>55,77; 60,33</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>62,06; 66,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>45.13389182269678</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>48.33430221354104</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>53.33220073703244</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>64.03138383539783</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>52.55822059689569</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>59.76745188502745</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>368,82%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>412,21%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>321,45%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>353,74%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>342,93%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>380,18%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>68.94506201960117</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>72.00331176919049</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>71.57208408841068</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>80.18724044937787</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>68.16954361537002</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>74.38389662815182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>296,72; 450,01</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>336,37; 498,04</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>275,63; 376,08</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>308,15; 412,26</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>300,91; 389,0</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>333,48; 430,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>3.247793347164524</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>3.521228175148188</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>3.364415093104761</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>3.872690702407154</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>3.306886151784291</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>3.699469411411053</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>1.438344048149724</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1.368839803502988</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>2.137302211610831</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>2.592408141669718</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>2.081280460028101</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>2.314014965880433</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>5.865026904905409</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>5.936034369715774</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>5.203609816297788</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>5.971716956097304</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>4.891836204946273</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>5.386258260435714</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>56.00829395414542</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>62.34384051215407</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>60.93294398496669</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>66.38047775645984</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>58.5383490759902</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>64.43791912646097</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>51.75824541489056</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>58.95420278690727</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>57.59230497219866</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>63.61277375004435</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>55.81510715393152</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>62.09795187136162</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>59.42360734521687</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>65.61259364000706</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>63.91266341280273</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>68.99117880190988</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>60.87504447286093</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>66.6103416425011</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>3.705864892866456</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>4.125064941803269</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>3.250141757280741</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>3.540711288752832</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>3.456522563957965</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>3.80487535010558</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>3.018186935564084</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>3.359467254835781</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>2.80444308235021</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>3.082176830856648</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>3.048779129920147</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>3.335361520371591</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>4.569048676365688</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>4.988985151312251</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>3.7878299143179</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>4.111932239418108</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>3.945958573164745</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>4.30781478657178</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1221,14 +1246,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
